--- a/modelagem.xlsx
+++ b/modelagem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielnrocha\Documents\Github\traffic-accidents-brazil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D627A9-71E0-4A83-A816-C58D6041289B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F9771-FE6A-4196-AC7F-D973AA0194D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3189F281-C457-479F-811B-CF24B2B9C13D}"/>
+    <workbookView xWindow="84" yWindow="3396" windowWidth="22956" windowHeight="8964" xr2:uid="{3189F281-C457-479F-811B-CF24B2B9C13D}"/>
   </bookViews>
   <sheets>
     <sheet name="modelagem" sheetId="2" r:id="rId1"/>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A30792-FA7D-414E-B1A9-D0649E1EAE5F}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,10 +755,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
@@ -775,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>24</v>
@@ -795,18 +795,18 @@
         <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
+      <c r="A6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>30</v>
@@ -814,19 +814,13 @@
       <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
+      <c r="A7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
@@ -838,7 +832,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>37</v>
@@ -849,7 +843,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>40</v>
@@ -857,7 +851,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>42</v>
@@ -865,7 +859,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
@@ -873,23 +867,23 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>47</v>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>49</v>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
@@ -897,31 +891,41 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>56</v>
       </c>
     </row>
